--- a/learn-phpexcel/practise/test1.xlsx
+++ b/learn-phpexcel/practise/test1.xlsx
@@ -1296,7 +1296,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1306,6 +1306,9 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1313,8 +1316,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1623,9 +1629,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30.563965" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
